--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-observation-vitalsigns.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/StructureDefinition-jp-observation-vitalsigns.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -690,7 +690,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP-Core仕様】患者</t>
+【JP Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -748,7 +748,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP-Core仕様】診察</t>
+【JP Core仕様】診察</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -785,7 +785,7 @@
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP-Core仕様】effectiveDateTime：医療者が確認した日時
+【JP Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -1330,7 +1330,7 @@
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP-Core仕様】関連する参照リソースにJP_Observation_VitalSignsを追加</t>
+【JP Core仕様】関連する参照リソースにJP_Observation_VitalSignsを追加</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1354,7 +1354,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP-Core仕様】導出元の参照リソースにJP_Observation_VitalSignsを追加</t>
+【JP Core仕様】導出元の参照リソースにJP_Observation_VitalSignsを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
